--- a/biology/Zoologie/Eumollusca/Eumollusca.xlsx
+++ b/biology/Zoologie/Eumollusca/Eumollusca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumollusques, Mollusques vrais
 Les Eumollusca (Eumollusques en français) désignés parfois sous l’appellation de Mollusques vrais, sont un sous-embranchement de mollusques à corps mou, non segmentés, et présentant une symétrie bilatérale.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sous-embranchement des Eumollusca est attribué, en 1891, au biologiste marin français Louis Roule (1861-1942)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-embranchement des Eumollusca est attribué, en 1891, au biologiste marin français Louis Roule (1861-1942).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eumollusques possèdent une sole pédieuse ventrale, développée, plate et musculeuse. Le pied peut prendre des formations particulières le rendant difficilement discernable.
 Le pli palléal limite entre le manteau et la cavité palléale formant le sillon palléal qui entoure le pied. Dans ce sillon, on observe en principe les cténidies (branchies spécifiques des mollusques) et les orifices des organes excréteurs et génitaux ainsi que l'anus. Un courant d'eau inhalant et exhalant, généralement assuré par les cils des branchies, assure un renouvellement de l'eau à l'intérieur de la cavité palléale.
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction est sexuée. Les deux sexes sont séparés mais il existe de nombreux cas d'hermaphrodisme (essentiellement chez les Bivalves et les Gastéropodes).
 Le cycle sexuel se compose d'une période de repos où les gonades sont encore non-développées et une période de ponte où la gonade prend de plus en plus de place dans la cavité et n'en déborde.
@@ -640,7 +660,9 @@
           <t>Exceptions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les bivalves étant microphages, ils n'ont plus de radula, de bulbe buccal et de glandes salivaires.
 Les Céphalopodes assurent leur renouvellement d'eau, non par les cils des branchies, mais par le mouvement de leur manteau.
